--- a/biology/Zoologie/Callosciurus/Callosciurus.xlsx
+++ b/biology/Zoologie/Callosciurus/Callosciurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callosciurus est un genre d'écureuils.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les écureuils du genre Callosciurus se rencontrent en Asie depuis le Bangladesh jusqu'en Malaisie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les écureuils du genre Callosciurus se rencontrent en Asie depuis le Bangladesh jusqu'en Malaisie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les écureuils du genre Callosciurus sont caractérisés par une taille moyenne et une fourrure lisse noire ou noirâtre arborant sur les côtés du corps une large bande longitudinale blanche ou pâle qui s'étend des épaules aux cuisses. La queue est noire, plutôt plus longue que le corps et la tête. Le menton dont le dessous est d'un rouge baie foncé est positionné à l'intérieur des membres antérieurs[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les écureuils du genre Callosciurus sont caractérisés par une taille moyenne et une fourrure lisse noire ou noirâtre arborant sur les côtés du corps une large bande longitudinale blanche ou pâle qui s'étend des épaules aux cuisses. La queue est noire, plutôt plus longue que le corps et la tête. Le menton dont le dessous est d'un rouge baie foncé est positionné à l'intérieur des membres antérieurs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (2 juin 2016)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (2 juin 2016) :
 Callosciurus adamsi (Kloss, 1921)
 Callosciurus baluensis (Bonhote, 1901)
 Callosciurus caniceps (Gray, 1842)
@@ -587,7 +605,7 @@
 Callosciurus notatus (Boddaert, 1785)
 Callosciurus orestes (Thomas, 1895)
 Callosciurus phayrei (Blyth, 1856)
-Callosciurus prevostii (Desmarest, 1822) - écureuil de Prévost[4]
+Callosciurus prevostii (Desmarest, 1822) - écureuil de Prévost
 Callosciurus pygerythrus (I. Geoffroy Saint Hilaire, 1831)
 Callosciurus quinquestriatus (Anderson, 1871)</t>
         </is>
